--- a/Proof of concept/Modelling network/Outputs/BONS_nowhere.xlsx
+++ b/Proof of concept/Modelling network/Outputs/BONS_nowhere.xlsx
@@ -1,126 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ofwat.sharepoint.com/sites/ofw-pr24/PR24 policy development/Data/Python work/Soteria/Proof of concept/Modelling network/Outputs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_3D51DCA73D3B3F119A101CD31F05745BCC379EF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0334DD9-7E7D-4C5A-8535-D11340A7FF92}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>FM.xlsx</t>
-  </si>
-  <si>
-    <t>Fountain inputs.xlsx</t>
-  </si>
-  <si>
-    <t>Model1.xlsx</t>
-  </si>
-  <si>
-    <t>Model2.xlsx</t>
-  </si>
-  <si>
-    <t>C_BON_FM6</t>
-  </si>
-  <si>
-    <t>C_BON_FM1</t>
-  </si>
-  <si>
-    <t>C_BON_FM3</t>
-  </si>
-  <si>
-    <t>C_BON_FM4</t>
-  </si>
-  <si>
-    <t>C_BON_FM9</t>
-  </si>
-  <si>
-    <t>C_BON_FM10</t>
-  </si>
-  <si>
-    <t>C_BON_FM2</t>
-  </si>
-  <si>
-    <t>C_BON_FM7</t>
-  </si>
-  <si>
-    <t>C_BON_FM5</t>
-  </si>
-  <si>
-    <t>C_BON_FM8</t>
-  </si>
-  <si>
-    <t>C_BON_116</t>
-  </si>
-  <si>
-    <t>C_BON_118</t>
-  </si>
-  <si>
-    <t>C_BON_119</t>
-  </si>
-  <si>
-    <t>C_BON_117</t>
-  </si>
-  <si>
-    <t>C_BON_230</t>
-  </si>
-  <si>
-    <t>C_BON_228</t>
-  </si>
-  <si>
-    <t>C_BON_229</t>
-  </si>
-  <si>
-    <t>C_BON_227</t>
-  </si>
-  <si>
-    <t>C_BON_226</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,54 +42,92 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -247,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,124 +408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="30" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071233F17EC503149BDF7FC18AB281EBA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02da06d0e7423711b15ba2dd948bdc51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e977ff61-02db-41ba-b0af-78a2a0b9367c" xmlns:ns3="71c95305-930c-4d63-9794-2d644343057c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d0e005ae340b8749f809a633acf029" ns2:_="" ns3:_="">
     <xsd:import namespace="e977ff61-02db-41ba-b0af-78a2a0b9367c"/>
@@ -812,29 +662,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBC2E0E-2023-4E82-9CF4-5E0FE53635AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDE2B5E-9516-4C40-8C63-ACB1BBDFB376}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8432F3B0-123D-497D-92B6-AA87654DAFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e977ff61-02db-41ba-b0af-78a2a0b9367c"/>
-    <ds:schemaRef ds:uri="71c95305-930c-4d63-9794-2d644343057c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894AF88F-FFC9-439A-9953-A32DFE36609E}"/>
 </file>